--- a/excel_ass.xlsx
+++ b/excel_ass.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Church\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MotheoThozamileMadel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387C6792-AA62-4BB9-8388-DA41645CD63A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{3510D008-00AD-4E35-9DA7-0A4527DE7D83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Jan</t>
   </si>
@@ -90,15 +91,12 @@
   </si>
   <si>
     <t>Total Expenses</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -157,7 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,7 +187,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -221,48 +217,9 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -271,9 +228,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$2</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Sales</c:v>
                 </c:pt>
@@ -288,1203 +245,56 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>Feb</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>March</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>April</c:v>
+                  <c:v>26450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>May</c:v>
+                  <c:v>30417.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>June</c:v>
+                  <c:v>34980.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>July</c:v>
+                  <c:v>40227.143750000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Aug</c:v>
+                  <c:v>46261.215312500004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sep</c:v>
+                  <c:v>53200.397609375003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Oct</c:v>
+                  <c:v>61180.457250781255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Nov</c:v>
+                  <c:v>70357.525838398447</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dec</c:v>
+                  <c:v>80911.154714158212</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$N$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>264500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>304175</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>349801.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>402271.4375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>462612.15312500001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>532003.97609374998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>611804.57250781253</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>703575.25838398444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>809111.54714158212</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>930478.27921281941</c:v>
+                <c:pt idx="12">
+                  <c:v>93047.827921281947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Cost of Sales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$N$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12650</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14547.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16729.625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19239.068749999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22124.929062499999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25443.668421875002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29260.218685156247</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33649.251487929687</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38696.639211119145</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44501.135092787015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51176.305356705067</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Gross Income</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>189000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>217350</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>249952.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>287445.375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>330562.18125000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>380146.50843749999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>437168.48470312502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>502743.75740859372</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>578155.3210198828</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>664878.61917286529</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>764610.41204879514</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>879301.97385611432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Profit/Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Expenditure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Salary</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8480</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8480</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8480</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Water &amp; Electricity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>413.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>413.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>413.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Fibre Internet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$10:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>432.47999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>432.47999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>432.47999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Fibre Internet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5325-44CB-A819-3211E5BE17CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Total Expenses</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$N$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>26800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30347.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32529.625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35039.068749999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37914.929062499999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41249.668421875002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45066.218685156244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49447.251487929687</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54542.51921111915</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60347.01509278702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67022.185356705057</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-5325-44CB-A819-3211E5BE17CA}"/>
+              <c16:uniqueId val="{00000000-6241-4F93-854D-8BD74E17ED6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1496,14 +306,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1366027359"/>
-        <c:axId val="1366028191"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1679826799"/>
+        <c:axId val="1993971023"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1366027359"/>
+        <c:axId val="1679826799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,8 +324,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1540,7 +355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1366028191"/>
+        <c:crossAx val="1993971023"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1548,7 +363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1366028191"/>
+        <c:axId val="1993971023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1366027359"/>
+        <c:crossAx val="1679826799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,38 +426,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1721,7 +504,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1744,6 +527,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1914,23 +708,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2035,8 +828,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2168,20 +961,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2218,20 +1010,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CCA15D-BF05-4E5C-813A-3A85432BE027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2266,7 +1064,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2278,7 +1076,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2325,6 +1123,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2360,6 +1175,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2511,11 +1343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5E581-40E2-4806-8046-1E9A0A9580AF}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,51 +1398,51 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="4">
         <f>(15/100 *C2) + C2</f>
-        <v>230000</v>
+        <v>23000</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:N2" si="0">(15/100 *D2) + D2</f>
-        <v>264500</v>
+        <v>26450</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>304175</v>
+        <v>30417.5</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>349801.25</v>
+        <v>34980.125</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>402271.4375</v>
+        <v>40227.143750000003</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>462612.15312500001</v>
+        <v>46261.215312500004</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>532003.97609374998</v>
+        <v>53200.397609375003</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>611804.57250781253</v>
+        <v>61180.457250781255</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>703575.25838398444</v>
+        <v>70357.525838398447</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>809111.54714158212</v>
+        <v>80911.154714158212</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>930478.27921281941</v>
+        <v>93047.827921281947</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2620,51 +1452,51 @@
       <c r="B3" s="3"/>
       <c r="C3" s="5">
         <f>(5.5/100*C2)</f>
-        <v>11000</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:N3" si="1">(5.5/100*D2)</f>
-        <v>12650</v>
+        <v>1265</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>14547.5</v>
+        <v>1454.75</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>16729.625</v>
+        <v>1672.9625000000001</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="1"/>
-        <v>19239.068749999999</v>
+        <v>1923.9068749999999</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="1"/>
-        <v>22124.929062499999</v>
+        <v>2212.49290625</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="1"/>
-        <v>25443.668421875002</v>
+        <v>2544.3668421875004</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="1"/>
-        <v>29260.218685156247</v>
+        <v>2926.0218685156251</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="1"/>
-        <v>33649.251487929687</v>
+        <v>3364.9251487929691</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="1"/>
-        <v>38696.639211119145</v>
+        <v>3869.6639211119145</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="1"/>
-        <v>44501.135092787015</v>
+        <v>4450.1135092787017</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="1"/>
-        <v>51176.305356705067</v>
+        <v>5117.630535670507</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2674,51 +1506,51 @@
       <c r="B4" s="3"/>
       <c r="C4" s="4">
         <f>C2 - C3</f>
-        <v>189000</v>
+        <v>18900</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:N4" si="2">D2 - D3</f>
-        <v>217350</v>
+        <v>21735</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="2"/>
-        <v>249952.5</v>
+        <v>24995.25</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>287445.375</v>
+        <v>28744.537499999999</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
-        <v>330562.18125000002</v>
+        <v>33056.218124999999</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="2"/>
-        <v>380146.50843749999</v>
+        <v>38014.650843750002</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="2"/>
-        <v>437168.48470312502</v>
+        <v>43716.848470312507</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>502743.75740859372</v>
+        <v>50274.375740859381</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="2"/>
-        <v>578155.3210198828</v>
+        <v>57815.532101988283</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>664878.61917286529</v>
+        <v>66487.861917286529</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
-        <v>764610.41204879514</v>
+        <v>76461.041204879511</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="2"/>
-        <v>879301.97385611432</v>
+        <v>87930.197385611435</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2726,18 +1558,54 @@
         <v>15</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="C5" s="4">
+        <f>C4 - C3</f>
+        <v>17800</v>
+      </c>
+      <c r="D5" s="4">
+        <f>D4 - D3</f>
+        <v>20470</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:N5" si="3">E4 - E3</f>
+        <v>23540.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>27071.574999999997</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>31132.311249999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>35802.1579375</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>41172.48162812501</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>47348.353872343752</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
+        <v>54450.606953195311</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>62618.197996174611</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>72010.927695600811</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>82812.566849940922</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2790,15 +1658,15 @@
         <v>8000</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7:N7" si="3">6/100*D7+ D7</f>
+        <f t="shared" ref="L7:N7" si="4">6/100*D7+ D7</f>
         <v>8480</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8480</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8480</v>
       </c>
     </row>
@@ -2854,19 +1722,19 @@
         <v>400</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:G9" si="4">5/100 * D7</f>
+        <f t="shared" ref="D9:G9" si="5">5/100 * D7</f>
         <v>400</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="H9" s="4">
@@ -2874,27 +1742,27 @@
         <v>390</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" ref="I9:N9" si="5">(5/100 * I7) - (2.5/100 * (5/100 * I7))</f>
+        <f t="shared" ref="I9:N9" si="6">(5/100 * I7) - (2.5/100 * (5/100 * I7))</f>
         <v>390</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>413.4</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>413.4</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>413.4</v>
       </c>
     </row>
@@ -2904,27 +1772,27 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="4">
-        <f>5/100 * C7</f>
+        <f t="shared" ref="C10:H10" si="7">5/100 * C7</f>
         <v>400</v>
       </c>
       <c r="D10" s="4">
-        <f>5/100 * D7</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E10" s="4">
-        <f>5/100 * E7</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="F10" s="4">
-        <f>5/100 * F7</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="G10" s="4">
-        <f>5/100 * G7</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="H10" s="4">
-        <f>5/100 * H7</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="I10" s="4">
@@ -2940,15 +1808,15 @@
         <v>408</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10:N10" si="6">(5/100 * L7) + (4/100 * (5/100 * L7)) - (2/100 * (5/100 * L7))</f>
+        <f t="shared" ref="L10:N10" si="8">(5/100 * L7) + (4/100 * (5/100 * L7)) - (2/100 * (5/100 * L7))</f>
         <v>432.47999999999996</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>432.47999999999996</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>432.47999999999996</v>
       </c>
     </row>
@@ -2963,66 +1831,61 @@
       <c r="B12" s="7"/>
       <c r="C12">
         <f>C3 + C8 + C9 +C10</f>
-        <v>26800</v>
+        <v>16900</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:N12" si="7">D3 + D8 + D9 +D10</f>
-        <v>28450</v>
+        <f t="shared" ref="D12:N12" si="9">D3 + D8 + D9 +D10</f>
+        <v>17065</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
-        <v>30347.5</v>
+        <f t="shared" si="9"/>
+        <v>17254.75</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
-        <v>32529.625</v>
+        <f t="shared" si="9"/>
+        <v>17472.962500000001</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
-        <v>35039.068749999999</v>
+        <f t="shared" si="9"/>
+        <v>17723.906875000001</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
-        <v>37914.929062499999</v>
+        <f t="shared" si="9"/>
+        <v>18002.492906250001</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
-        <v>41249.668421875002</v>
+        <f t="shared" si="9"/>
+        <v>18350.366842187501</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
-        <v>45066.218685156244</v>
+        <f t="shared" si="9"/>
+        <v>18732.021868515625</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
-        <v>49447.251487929687</v>
+        <f t="shared" si="9"/>
+        <v>19162.925148792969</v>
       </c>
       <c r="L12">
-        <f t="shared" si="7"/>
-        <v>54542.51921111915</v>
+        <f t="shared" si="9"/>
+        <v>19715.543921111916</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
-        <v>60347.01509278702</v>
+        <f t="shared" si="9"/>
+        <v>20295.993509278702</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
-        <v>67022.185356705057</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="8" t="s">
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>20963.510535670506</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
